--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="13">
   <si>
     <t>PY</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Afforestation/reforestation</t>
-  </si>
-  <si>
-    <t>Ethics &amp; Morals</t>
   </si>
   <si>
     <t>Biochar</t>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1379,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1435,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1491,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1771,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1911,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1925,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1939,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2681,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="D162">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2695,7 +2692,7 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2793,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2863,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2975,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2989,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3003,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3017,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3031,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3045,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3059,7 +3056,7 @@
         <v>9</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3073,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3241,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3255,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3283,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3297,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3311,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3325,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3339,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3353,7 +3350,7 @@
         <v>10</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3367,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3381,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3395,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3409,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3423,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="D215">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3437,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3451,7 +3448,7 @@
         <v>10</v>
       </c>
       <c r="D217">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3479,7 +3476,7 @@
         <v>11</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3507,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3521,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3535,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3577,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3591,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3605,7 +3602,7 @@
         <v>11</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3619,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3633,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3647,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3661,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3675,7 +3672,7 @@
         <v>11</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3689,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3703,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3717,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3731,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3745,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3759,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="D239">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3773,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="D240">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3787,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="D241">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3801,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="D242">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3815,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="D243">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3829,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="D244">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3857,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3885,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3899,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3955,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3969,7 +3966,7 @@
         <v>12</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3983,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3997,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="D256">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4011,7 +4008,7 @@
         <v>12</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4025,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4039,7 +4036,7 @@
         <v>12</v>
       </c>
       <c r="D259">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4053,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="D260">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4067,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="D261">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4081,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="D262">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4095,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="D263">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4109,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="D264">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4123,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="D265">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4137,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="D266">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4151,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="D267">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4165,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4179,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="D269">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4193,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4207,384 +4204,6 @@
         <v>12</v>
       </c>
       <c r="D271">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>1990</v>
-      </c>
-      <c r="C272" t="s">
-        <v>13</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>1991</v>
-      </c>
-      <c r="C273" t="s">
-        <v>13</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>1992</v>
-      </c>
-      <c r="C274" t="s">
-        <v>13</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>1993</v>
-      </c>
-      <c r="C275" t="s">
-        <v>13</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>1994</v>
-      </c>
-      <c r="C276" t="s">
-        <v>13</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>1995</v>
-      </c>
-      <c r="C277" t="s">
-        <v>13</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>1996</v>
-      </c>
-      <c r="C278" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>1997</v>
-      </c>
-      <c r="C279" t="s">
-        <v>13</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>1998</v>
-      </c>
-      <c r="C280" t="s">
-        <v>13</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>1999</v>
-      </c>
-      <c r="C281" t="s">
-        <v>13</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>2000</v>
-      </c>
-      <c r="C282" t="s">
-        <v>13</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>2001</v>
-      </c>
-      <c r="C283" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>2002</v>
-      </c>
-      <c r="C284" t="s">
-        <v>13</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>2003</v>
-      </c>
-      <c r="C285" t="s">
-        <v>13</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>2004</v>
-      </c>
-      <c r="C286" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>2005</v>
-      </c>
-      <c r="C287" t="s">
-        <v>13</v>
-      </c>
-      <c r="D287">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>2006</v>
-      </c>
-      <c r="C288" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>2007</v>
-      </c>
-      <c r="C289" t="s">
-        <v>13</v>
-      </c>
-      <c r="D289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290">
-        <v>2008</v>
-      </c>
-      <c r="C290" t="s">
-        <v>13</v>
-      </c>
-      <c r="D290">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291">
-        <v>2009</v>
-      </c>
-      <c r="C291" t="s">
-        <v>13</v>
-      </c>
-      <c r="D291">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>2010</v>
-      </c>
-      <c r="C292" t="s">
-        <v>13</v>
-      </c>
-      <c r="D292">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293">
-        <v>2011</v>
-      </c>
-      <c r="C293" t="s">
-        <v>13</v>
-      </c>
-      <c r="D293">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294">
-        <v>2012</v>
-      </c>
-      <c r="C294" t="s">
-        <v>13</v>
-      </c>
-      <c r="D294">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295">
-        <v>2013</v>
-      </c>
-      <c r="C295" t="s">
-        <v>13</v>
-      </c>
-      <c r="D295">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296">
-        <v>2014</v>
-      </c>
-      <c r="C296" t="s">
-        <v>13</v>
-      </c>
-      <c r="D296">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297">
-        <v>2015</v>
-      </c>
-      <c r="C297" t="s">
-        <v>13</v>
-      </c>
-      <c r="D297">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298">
-        <v>2016</v>
-      </c>
-      <c r="C298" t="s">
-        <v>13</v>
-      </c>
-      <c r="D298">
         <v>50</v>
       </c>
     </row>

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1712,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1782,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1838,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4">

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="12">
   <si>
     <t>PY</t>
   </si>
@@ -25,10 +25,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>Enhanced Weathering</t>
+    <t>Synonyms</t>
   </si>
   <si>
-    <t>Blue Carbon</t>
+    <t>Enhanced Weathering</t>
   </si>
   <si>
     <t>BECCS</t>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Ocean fertilisation</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -446,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -460,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -488,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -502,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -530,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -558,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -572,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -586,13 +583,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -600,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -614,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -628,13 +625,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -642,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -656,13 +653,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -670,13 +667,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -684,13 +681,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -698,13 +695,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -712,13 +709,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -726,13 +723,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -740,13 +737,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -754,13 +751,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -768,13 +765,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -782,13 +779,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -796,13 +793,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -810,13 +807,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -824,13 +821,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -838,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -852,7 +849,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -866,7 +863,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -880,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -894,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -908,7 +905,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -922,7 +919,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -936,13 +933,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -950,7 +947,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -964,13 +961,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -978,7 +975,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -992,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1006,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1020,13 +1017,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1034,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1048,13 +1045,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1062,13 +1059,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1076,13 +1073,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1090,7 +1087,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1104,13 +1101,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1118,7 +1115,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1132,13 +1129,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1146,13 +1143,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1160,13 +1157,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1174,13 +1171,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1188,13 +1185,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1990</v>
+        <v>2013</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1202,13 +1199,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1216,13 +1213,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1230,13 +1227,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1244,7 +1241,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1258,7 +1255,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1272,7 +1269,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1286,7 +1283,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1300,7 +1297,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1314,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1328,7 +1325,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1342,7 +1339,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1356,7 +1353,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1370,13 +1367,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1384,13 +1381,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1398,13 +1395,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1412,13 +1409,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1426,13 +1423,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1440,13 +1437,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1454,13 +1451,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1468,13 +1465,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1482,13 +1479,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1496,13 +1493,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1510,13 +1507,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1524,13 +1521,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1538,13 +1535,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1552,13 +1549,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1566,13 +1563,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1580,13 +1577,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1594,13 +1591,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1608,13 +1605,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1993</v>
+        <v>2014</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1622,13 +1619,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1636,13 +1633,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1995</v>
+        <v>2016</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1650,13 +1647,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1664,13 +1661,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1678,13 +1675,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1692,13 +1689,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1706,13 +1703,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1720,13 +1717,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1734,13 +1731,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1748,13 +1745,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1762,13 +1759,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1776,13 +1773,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1790,13 +1787,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1804,13 +1801,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1818,13 +1815,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1832,13 +1829,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1846,13 +1843,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1860,13 +1857,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1874,13 +1871,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1888,13 +1885,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1902,13 +1899,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1916,13 +1913,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1930,13 +1927,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1944,13 +1941,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1958,13 +1955,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1972,13 +1969,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1986,13 +1983,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2000,13 +1997,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2014,13 +2011,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2028,13 +2025,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2042,13 +2039,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2056,7 +2053,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -2070,13 +2067,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2084,13 +2081,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2098,7 +2095,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -2112,7 +2109,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -2126,7 +2123,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -2140,7 +2137,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -2154,13 +2151,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2168,7 +2165,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -2182,13 +2179,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2196,13 +2193,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2210,13 +2207,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2224,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2238,7 +2235,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -2252,13 +2249,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2266,13 +2263,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2280,13 +2277,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2294,13 +2291,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2308,13 +2305,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2322,13 +2319,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1990</v>
+        <v>2007</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2336,13 +2333,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2350,13 +2347,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2364,13 +2361,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2378,13 +2375,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2392,13 +2389,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2406,10 +2403,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -2420,13 +2417,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2434,13 +2431,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2448,13 +2445,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2462,13 +2459,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="D147">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2476,13 +2473,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2490,13 +2487,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2504,13 +2501,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2518,13 +2515,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2532,7 +2529,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -2546,13 +2543,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2560,13 +2557,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
       <c r="D154">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2574,13 +2571,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
       </c>
       <c r="D155">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2588,13 +2585,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
       </c>
       <c r="D156">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2602,13 +2599,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
       </c>
       <c r="D157">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2616,13 +2613,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
       <c r="D158">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2630,13 +2627,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
       </c>
       <c r="D159">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2644,13 +2641,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
       </c>
       <c r="D160">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2658,13 +2655,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2672,13 +2669,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
       </c>
       <c r="D162">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2686,13 +2683,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
       </c>
       <c r="D163">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2700,13 +2697,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164">
         <v>9</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2714,13 +2711,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2728,13 +2725,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2742,13 +2739,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2756,13 +2753,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2770,13 +2767,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2784,13 +2781,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2798,13 +2795,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2812,13 +2809,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2826,13 +2823,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2840,13 +2837,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2854,13 +2851,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2868,7 +2865,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -2882,7 +2879,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -2896,7 +2893,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2004</v>
+        <v>1990</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
@@ -2910,7 +2907,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -2924,13 +2921,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2938,7 +2935,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -2952,7 +2949,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -2966,13 +2963,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2980,13 +2977,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2994,13 +2991,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3008,13 +3005,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3022,13 +3019,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3036,13 +3033,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3050,13 +3047,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3064,13 +3061,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3078,10 +3075,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3092,10 +3089,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3106,10 +3103,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3120,13 +3117,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3134,10 +3131,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3148,10 +3145,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3162,13 +3159,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3176,13 +3173,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3190,13 +3187,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3204,13 +3201,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1999</v>
+        <v>2012</v>
       </c>
       <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
         <v>10</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3218,13 +3215,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3232,13 +3229,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3246,13 +3243,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3260,13 +3257,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3274,13 +3271,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="C205" t="s">
         <v>10</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3288,13 +3285,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="C206" t="s">
         <v>10</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3302,13 +3299,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C207" t="s">
         <v>10</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3316,13 +3313,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="C208" t="s">
         <v>10</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3330,13 +3327,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="C209" t="s">
         <v>10</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3344,13 +3341,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="C210" t="s">
         <v>10</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3358,13 +3355,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3372,13 +3369,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="C212" t="s">
         <v>10</v>
       </c>
       <c r="D212">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3386,13 +3383,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="C213" t="s">
         <v>10</v>
       </c>
       <c r="D213">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3400,13 +3397,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="C214" t="s">
         <v>10</v>
       </c>
       <c r="D214">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3414,13 +3411,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C215" t="s">
         <v>10</v>
       </c>
       <c r="D215">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3428,13 +3425,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C216" t="s">
         <v>10</v>
       </c>
       <c r="D216">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3442,13 +3439,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C217" t="s">
         <v>10</v>
       </c>
       <c r="D217">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3456,10 +3453,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -3470,13 +3467,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3484,10 +3481,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -3498,13 +3495,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3512,13 +3509,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3526,13 +3523,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3540,13 +3537,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3554,13 +3551,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3568,13 +3565,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3582,13 +3579,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3596,13 +3593,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3610,13 +3607,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D229">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3624,13 +3621,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3638,13 +3635,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3652,13 +3649,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3666,13 +3663,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D233">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3680,13 +3677,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
       </c>
       <c r="D234">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3694,13 +3691,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="C235" t="s">
         <v>11</v>
       </c>
       <c r="D235">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3708,13 +3705,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
       </c>
       <c r="D236">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3722,13 +3719,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C237" t="s">
         <v>11</v>
       </c>
       <c r="D237">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3736,13 +3733,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2010</v>
+        <v>1992</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
       </c>
       <c r="D238">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3750,13 +3747,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="C239" t="s">
         <v>11</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3764,13 +3761,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="C240" t="s">
         <v>11</v>
       </c>
       <c r="D240">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3778,13 +3775,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="C241" t="s">
         <v>11</v>
       </c>
       <c r="D241">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3792,13 +3789,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="C242" t="s">
         <v>11</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3806,13 +3803,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="C243" t="s">
         <v>11</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3820,13 +3817,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="C244" t="s">
         <v>11</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3834,13 +3831,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3848,13 +3845,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3862,13 +3859,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3876,13 +3873,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3890,13 +3887,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3904,13 +3901,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3918,13 +3915,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3932,13 +3929,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="C252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3946,13 +3943,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="C253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3960,13 +3957,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="C254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3974,13 +3971,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="C255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3988,13 +3985,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4002,13 +3999,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4016,13 +4013,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4030,10 +4027,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D259">
         <v>6</v>
@@ -4044,13 +4041,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4058,13 +4055,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="C261" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4072,139 +4069,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>2008</v>
-      </c>
-      <c r="C263" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>2009</v>
-      </c>
-      <c r="C264" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>2010</v>
-      </c>
-      <c r="C265" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>2011</v>
-      </c>
-      <c r="C266" t="s">
-        <v>12</v>
-      </c>
-      <c r="D266">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>2012</v>
-      </c>
-      <c r="C267" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>2013</v>
-      </c>
-      <c r="C268" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>2014</v>
-      </c>
-      <c r="C269" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>2015</v>
-      </c>
-      <c r="C270" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>2016</v>
-      </c>
-      <c r="C271" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="22">
   <si>
     <t>PY</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Technology</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ar_name</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>Synonyms</t>
+    <t>ysum</t>
   </si>
   <si>
-    <t>Enhanced Weathering</t>
-  </si>
-  <si>
-    <t>BECCS</t>
+    <t>share</t>
   </si>
   <si>
     <t>Soil Carbon Sequestration</t>
@@ -50,6 +53,33 @@
   </si>
   <si>
     <t>Ocean fertilisation</t>
+  </si>
+  <si>
+    <t>Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>NETs - General</t>
+  </si>
+  <si>
+    <t>BECCS</t>
+  </si>
+  <si>
+    <t>AR1</t>
+  </si>
+  <si>
+    <t>AR2</t>
+  </si>
+  <si>
+    <t>AR3</t>
+  </si>
+  <si>
+    <t>AR4</t>
+  </si>
+  <si>
+    <t>AR5</t>
+  </si>
+  <si>
+    <t>AR6</t>
   </si>
 </sst>
 </file>
@@ -407,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +453,20 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,13 +474,22 @@
         <v>1988</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,13 +497,25 @@
         <v>1989</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -460,13 +523,22 @@
         <v>1990</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -474,13 +546,25 @@
         <v>1991</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -488,13 +572,25 @@
         <v>1992</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -502,13 +598,25 @@
         <v>1993</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -516,13 +624,25 @@
         <v>1994</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -530,13 +650,25 @@
         <v>1995</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -544,13 +676,25 @@
         <v>1996</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -558,13 +702,25 @@
         <v>1997</v>
       </c>
       <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -572,13 +728,25 @@
         <v>1998</v>
       </c>
       <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -586,13 +754,25 @@
         <v>1999</v>
       </c>
       <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>15.38461538461539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -600,13 +780,25 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -614,13 +806,25 @@
         <v>2001</v>
       </c>
       <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -628,13 +832,25 @@
         <v>2002</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>39.1304347826087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -642,13 +858,25 @@
         <v>2003</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>38.46153846153847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -656,13 +884,25 @@
         <v>2004</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>33.89830508474576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -670,13 +910,25 @@
         <v>2005</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>27.41935483870968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -684,13 +936,25 @@
         <v>2006</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -698,13 +962,25 @@
         <v>2007</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+      <c r="H21">
+        <v>27.41935483870968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -712,13 +988,25 @@
         <v>2008</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>81</v>
+      </c>
+      <c r="H22">
+        <v>25.92592592592592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -726,13 +1014,25 @@
         <v>2009</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -740,13 +1040,25 @@
         <v>2010</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>144</v>
+      </c>
+      <c r="H24">
+        <v>31.94444444444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -754,13 +1066,25 @@
         <v>2011</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>172</v>
+      </c>
+      <c r="H25">
+        <v>22.09302325581395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -768,13 +1092,25 @@
         <v>2012</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>184</v>
+      </c>
+      <c r="H26">
+        <v>28.80434782608696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -782,13 +1118,25 @@
         <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>61</v>
+      </c>
+      <c r="G27">
+        <v>223</v>
+      </c>
+      <c r="H27">
+        <v>27.3542600896861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -796,13 +1144,25 @@
         <v>2014</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>218</v>
+      </c>
+      <c r="H28">
+        <v>26.14678899082569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -810,13 +1170,25 @@
         <v>2015</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29">
+        <v>228</v>
+      </c>
+      <c r="H29">
+        <v>28.94736842105263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -824,13 +1196,25 @@
         <v>2016</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>75</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -838,13 +1222,22 @@
         <v>1988</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -852,13 +1245,25 @@
         <v>1989</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -866,13 +1271,22 @@
         <v>1990</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -880,13 +1294,25 @@
         <v>1991</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -894,13 +1320,25 @@
         <v>1992</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -908,13 +1346,25 @@
         <v>1993</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -922,13 +1372,25 @@
         <v>1994</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -936,13 +1398,25 @@
         <v>1995</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -950,13 +1424,25 @@
         <v>1996</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -964,13 +1450,25 @@
         <v>1997</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -978,13 +1476,25 @@
         <v>1998</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -992,13 +1502,25 @@
         <v>1999</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1006,13 +1528,25 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>25</v>
+      </c>
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1020,13 +1554,25 @@
         <v>2001</v>
       </c>
       <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1034,13 +1580,25 @@
         <v>2002</v>
       </c>
       <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>23</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1048,13 +1606,25 @@
         <v>2003</v>
       </c>
       <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1062,13 +1632,25 @@
         <v>2004</v>
       </c>
       <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>59</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1076,13 +1658,25 @@
         <v>2005</v>
       </c>
       <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>62</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1090,13 +1684,25 @@
         <v>2006</v>
       </c>
       <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>64</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1104,13 +1710,25 @@
         <v>2007</v>
       </c>
       <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1118,13 +1736,25 @@
         <v>2008</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="G51">
+        <v>81</v>
+      </c>
+      <c r="H51">
+        <v>1.234567901234568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1132,13 +1762,25 @@
         <v>2009</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>108</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1146,13 +1788,25 @@
         <v>2010</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>144</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1160,13 +1814,25 @@
         <v>2011</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>172</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1174,13 +1840,25 @@
         <v>2012</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>184</v>
+      </c>
+      <c r="H55">
+        <v>0.5434782608695652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1188,13 +1866,25 @@
         <v>2013</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>223</v>
+      </c>
+      <c r="H56">
+        <v>2.690582959641256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1202,13 +1892,25 @@
         <v>2014</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>218</v>
+      </c>
+      <c r="H57">
+        <v>0.9174311926605505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1216,13 +1918,25 @@
         <v>2015</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>228</v>
+      </c>
+      <c r="H58">
+        <v>0.4385964912280702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1230,13 +1944,25 @@
         <v>2016</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>300</v>
+      </c>
+      <c r="H59">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1244,13 +1970,22 @@
         <v>1988</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1258,13 +1993,25 @@
         <v>1989</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1272,13 +2019,22 @@
         <v>1990</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1286,13 +2042,25 @@
         <v>1991</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>36.36363636363637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1300,13 +2068,25 @@
         <v>1992</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1314,13 +2094,25 @@
         <v>1993</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>81.81818181818183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1328,13 +2120,25 @@
         <v>1994</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1342,13 +2146,25 @@
         <v>1995</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>14</v>
+      </c>
+      <c r="H67">
+        <v>71.42857142857143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1356,13 +2172,25 @@
         <v>1996</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>85.71428571428571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1370,13 +2198,25 @@
         <v>1997</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>85.71428571428571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1384,13 +2224,25 @@
         <v>1998</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1398,13 +2250,25 @@
         <v>1999</v>
       </c>
       <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71">
+        <v>38.46153846153847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1412,13 +2276,25 @@
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="H72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1426,13 +2302,25 @@
         <v>2001</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>32</v>
+      </c>
+      <c r="H73">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1440,13 +2328,25 @@
         <v>2002</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>23</v>
+      </c>
+      <c r="H74">
+        <v>39.1304347826087</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1454,13 +2354,25 @@
         <v>2003</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>26</v>
+      </c>
+      <c r="H75">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1468,13 +2380,25 @@
         <v>2004</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>59</v>
+      </c>
+      <c r="H76">
+        <v>30.50847457627119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1482,13 +2406,25 @@
         <v>2005</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>62</v>
+      </c>
+      <c r="H77">
+        <v>14.51612903225807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1496,13 +2432,25 @@
         <v>2006</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78">
+        <v>64</v>
+      </c>
+      <c r="H78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1510,13 +2458,25 @@
         <v>2007</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79">
+        <v>25</v>
+      </c>
+      <c r="G79">
+        <v>62</v>
+      </c>
+      <c r="H79">
+        <v>40.32258064516129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1524,13 +2484,25 @@
         <v>2008</v>
       </c>
       <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
         <v>5</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>22</v>
+      </c>
+      <c r="G80">
+        <v>81</v>
+      </c>
+      <c r="H80">
+        <v>27.16049382716049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1538,13 +2510,25 @@
         <v>2009</v>
       </c>
       <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
         <v>5</v>
       </c>
-      <c r="D81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81">
+        <v>108</v>
+      </c>
+      <c r="H81">
+        <v>23.14814814814815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1552,13 +2536,25 @@
         <v>2010</v>
       </c>
       <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>34</v>
+      </c>
+      <c r="G82">
+        <v>144</v>
+      </c>
+      <c r="H82">
+        <v>23.61111111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1566,13 +2562,25 @@
         <v>2011</v>
       </c>
       <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
         <v>5</v>
       </c>
-      <c r="D83">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>172</v>
+      </c>
+      <c r="H83">
+        <v>26.74418604651163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1580,13 +2588,25 @@
         <v>2012</v>
       </c>
       <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
         <v>5</v>
       </c>
-      <c r="D84">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>39</v>
+      </c>
+      <c r="G84">
+        <v>184</v>
+      </c>
+      <c r="H84">
+        <v>21.19565217391304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1594,13 +2614,25 @@
         <v>2013</v>
       </c>
       <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
         <v>5</v>
       </c>
-      <c r="D85">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85">
+        <v>38</v>
+      </c>
+      <c r="G85">
+        <v>223</v>
+      </c>
+      <c r="H85">
+        <v>17.04035874439462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1608,13 +2640,25 @@
         <v>2014</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86">
+        <v>28</v>
+      </c>
+      <c r="G86">
+        <v>218</v>
+      </c>
+      <c r="H86">
+        <v>12.84403669724771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1622,13 +2666,25 @@
         <v>2015</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87">
+        <v>39</v>
+      </c>
+      <c r="G87">
+        <v>228</v>
+      </c>
+      <c r="H87">
+        <v>17.10526315789474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1636,13 +2692,25 @@
         <v>2016</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>54</v>
+      </c>
+      <c r="G88">
+        <v>300</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1650,13 +2718,22 @@
         <v>1988</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1664,13 +2741,25 @@
         <v>1989</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1678,13 +2767,22 @@
         <v>1990</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1692,13 +2790,25 @@
         <v>1991</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1706,13 +2816,25 @@
         <v>1992</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1720,13 +2842,25 @@
         <v>1993</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1734,13 +2868,25 @@
         <v>1994</v>
       </c>
       <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>6</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1748,13 +2894,25 @@
         <v>1995</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>14</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1762,13 +2920,25 @@
         <v>1996</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1776,13 +2946,25 @@
         <v>1997</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1790,13 +2972,25 @@
         <v>1998</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1804,13 +2998,25 @@
         <v>1999</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1818,13 +3024,25 @@
         <v>2000</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>25</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1832,13 +3050,25 @@
         <v>2001</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>32</v>
+      </c>
+      <c r="H102">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1846,13 +3076,25 @@
         <v>2002</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>23</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1860,13 +3102,25 @@
         <v>2003</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>26</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1874,13 +3128,25 @@
         <v>2004</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>59</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1888,13 +3154,25 @@
         <v>2005</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>62</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1902,13 +3180,25 @@
         <v>2006</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>64</v>
+      </c>
+      <c r="H107">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1916,13 +3206,25 @@
         <v>2007</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>62</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1930,13 +3232,25 @@
         <v>2008</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>81</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1944,13 +3258,25 @@
         <v>2009</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>108</v>
+      </c>
+      <c r="H110">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1958,13 +3284,25 @@
         <v>2010</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <v>144</v>
+      </c>
+      <c r="H111">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1972,13 +3310,25 @@
         <v>2011</v>
       </c>
       <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112">
         <v>6</v>
       </c>
-      <c r="D112">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="G112">
+        <v>172</v>
+      </c>
+      <c r="H112">
+        <v>3.488372093023256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1986,13 +3336,25 @@
         <v>2012</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>184</v>
+      </c>
+      <c r="H113">
+        <v>5.434782608695652</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2000,13 +3362,25 @@
         <v>2013</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>223</v>
+      </c>
+      <c r="H114">
+        <v>5.829596412556054</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2014,13 +3388,25 @@
         <v>2014</v>
       </c>
       <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
         <v>6</v>
       </c>
-      <c r="D115">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>218</v>
+      </c>
+      <c r="H115">
+        <v>5.963302752293578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2028,13 +3414,25 @@
         <v>2015</v>
       </c>
       <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
         <v>6</v>
       </c>
-      <c r="D116">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116">
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <v>228</v>
+      </c>
+      <c r="H116">
+        <v>7.894736842105263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2042,13 +3440,25 @@
         <v>2016</v>
       </c>
       <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
         <v>6</v>
       </c>
-      <c r="D117">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117">
+        <v>25</v>
+      </c>
+      <c r="G117">
+        <v>300</v>
+      </c>
+      <c r="H117">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2056,13 +3466,22 @@
         <v>1988</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2070,13 +3489,25 @@
         <v>1989</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2084,13 +3515,22 @@
         <v>1990</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2098,13 +3538,25 @@
         <v>1991</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>11</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2112,13 +3564,25 @@
         <v>1992</v>
       </c>
       <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
         <v>7</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2126,13 +3590,25 @@
         <v>1993</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>11</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2140,13 +3616,25 @@
         <v>1994</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2154,13 +3642,25 @@
         <v>1995</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>14</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2168,13 +3668,25 @@
         <v>1996</v>
       </c>
       <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
         <v>7</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2182,13 +3694,25 @@
         <v>1997</v>
       </c>
       <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>7</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2196,13 +3720,25 @@
         <v>1998</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2210,13 +3746,25 @@
         <v>1999</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>13</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2224,13 +3772,25 @@
         <v>2000</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>25</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2238,13 +3798,25 @@
         <v>2001</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>32</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2252,13 +3824,25 @@
         <v>2002</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>23</v>
+      </c>
+      <c r="H132">
+        <v>8.695652173913043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2266,13 +3850,25 @@
         <v>2003</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>26</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2280,13 +3876,25 @@
         <v>2004</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>59</v>
+      </c>
+      <c r="H134">
+        <v>5.084745762711865</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2294,13 +3902,25 @@
         <v>2005</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>62</v>
+      </c>
+      <c r="H135">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2308,13 +3928,25 @@
         <v>2006</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>64</v>
+      </c>
+      <c r="H136">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2322,13 +3954,25 @@
         <v>2007</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>62</v>
+      </c>
+      <c r="H137">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2336,13 +3980,25 @@
         <v>2008</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138">
+        <v>81</v>
+      </c>
+      <c r="H138">
+        <v>6.172839506172839</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2350,13 +4006,25 @@
         <v>2009</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>108</v>
+      </c>
+      <c r="H139">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2364,13 +4032,25 @@
         <v>2010</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140">
+        <v>6</v>
+      </c>
+      <c r="G140">
+        <v>144</v>
+      </c>
+      <c r="H140">
+        <v>4.166666666666666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2378,13 +4058,25 @@
         <v>2011</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>22</v>
+      </c>
+      <c r="G141">
+        <v>172</v>
+      </c>
+      <c r="H141">
+        <v>12.79069767441861</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2392,13 +4084,25 @@
         <v>2012</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142">
+        <v>184</v>
+      </c>
+      <c r="H142">
+        <v>13.04347826086956</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2406,13 +4110,25 @@
         <v>2013</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143">
+        <v>28</v>
+      </c>
+      <c r="G143">
+        <v>223</v>
+      </c>
+      <c r="H143">
+        <v>12.55605381165919</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2420,13 +4136,25 @@
         <v>2014</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144">
+        <v>31</v>
+      </c>
+      <c r="G144">
+        <v>218</v>
+      </c>
+      <c r="H144">
+        <v>14.22018348623853</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2434,13 +4162,25 @@
         <v>2015</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145">
+        <v>228</v>
+      </c>
+      <c r="H145">
+        <v>13.1578947368421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2448,13 +4188,25 @@
         <v>2016</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146">
+        <v>38</v>
+      </c>
+      <c r="G146">
+        <v>300</v>
+      </c>
+      <c r="H146">
+        <v>12.66666666666667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2462,13 +4214,22 @@
         <v>1988</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2476,13 +4237,25 @@
         <v>1989</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2490,13 +4263,22 @@
         <v>1990</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2504,13 +4286,25 @@
         <v>1991</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150">
+        <v>7</v>
+      </c>
+      <c r="G150">
+        <v>11</v>
+      </c>
+      <c r="H150">
+        <v>63.63636363636363</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2518,13 +4312,25 @@
         <v>1992</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2532,13 +4338,25 @@
         <v>1993</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D152">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>11</v>
+      </c>
+      <c r="H152">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2546,13 +4364,25 @@
         <v>1994</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>6</v>
+      </c>
+      <c r="H153">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2560,13 +4390,25 @@
         <v>1995</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>14</v>
+      </c>
+      <c r="H154">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2574,13 +4416,25 @@
         <v>1996</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D155">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2588,13 +4442,25 @@
         <v>1997</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D156">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>7</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2602,13 +4468,25 @@
         <v>1998</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2616,13 +4494,25 @@
         <v>1999</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="G158">
+        <v>13</v>
+      </c>
+      <c r="H158">
+        <v>38.46153846153847</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2630,13 +4520,25 @@
         <v>2000</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D159">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>25</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2644,13 +4546,25 @@
         <v>2001</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D160">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>15</v>
+      </c>
+      <c r="G160">
+        <v>32</v>
+      </c>
+      <c r="H160">
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2658,13 +4572,25 @@
         <v>2002</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>23</v>
+      </c>
+      <c r="H161">
+        <v>13.04347826086956</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2672,13 +4598,25 @@
         <v>2003</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>26</v>
+      </c>
+      <c r="H162">
+        <v>11.53846153846154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2686,13 +4624,25 @@
         <v>2004</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D163">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>59</v>
+      </c>
+      <c r="H163">
+        <v>15.25423728813559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2700,13 +4650,25 @@
         <v>2005</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D164">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164">
+        <v>62</v>
+      </c>
+      <c r="H164">
+        <v>32.25806451612903</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2714,13 +4676,25 @@
         <v>2006</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D165">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>14</v>
+      </c>
+      <c r="G165">
+        <v>64</v>
+      </c>
+      <c r="H165">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2728,13 +4702,25 @@
         <v>2007</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>9</v>
+      </c>
+      <c r="G166">
+        <v>62</v>
+      </c>
+      <c r="H166">
+        <v>14.51612903225807</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2742,13 +4728,25 @@
         <v>2008</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D167">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167">
+        <v>27</v>
+      </c>
+      <c r="G167">
+        <v>81</v>
+      </c>
+      <c r="H167">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2756,13 +4754,25 @@
         <v>2009</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D168">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>22</v>
+      </c>
+      <c r="G168">
+        <v>108</v>
+      </c>
+      <c r="H168">
+        <v>20.37037037037037</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2770,13 +4780,25 @@
         <v>2010</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D169">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169">
+        <v>15</v>
+      </c>
+      <c r="G169">
+        <v>144</v>
+      </c>
+      <c r="H169">
+        <v>10.41666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2784,13 +4806,25 @@
         <v>2011</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>9</v>
+      </c>
+      <c r="G170">
+        <v>172</v>
+      </c>
+      <c r="H170">
+        <v>5.232558139534884</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2798,13 +4832,25 @@
         <v>2012</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D171">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171">
+        <v>14</v>
+      </c>
+      <c r="G171">
+        <v>184</v>
+      </c>
+      <c r="H171">
+        <v>7.608695652173914</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2812,13 +4858,25 @@
         <v>2013</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D172">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172">
+        <v>223</v>
+      </c>
+      <c r="H172">
+        <v>2.690582959641256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2826,13 +4884,25 @@
         <v>2014</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D173">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173">
+        <v>15</v>
+      </c>
+      <c r="G173">
+        <v>218</v>
+      </c>
+      <c r="H173">
+        <v>6.880733944954128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2840,13 +4910,25 @@
         <v>2015</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D174">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174">
+        <v>228</v>
+      </c>
+      <c r="H174">
+        <v>3.070175438596491</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2854,13 +4936,25 @@
         <v>2016</v>
       </c>
       <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175">
         <v>8</v>
       </c>
-      <c r="D175">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="G175">
+        <v>300</v>
+      </c>
+      <c r="H175">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2868,13 +4962,22 @@
         <v>1988</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2882,13 +4985,25 @@
         <v>1989</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2896,13 +5011,22 @@
         <v>1990</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2910,13 +5034,25 @@
         <v>1991</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>11</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2924,13 +5060,25 @@
         <v>1992</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2938,13 +5086,25 @@
         <v>1993</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2952,13 +5112,25 @@
         <v>1994</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>6</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2966,13 +5138,25 @@
         <v>1995</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>14</v>
+      </c>
+      <c r="H183">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2980,13 +5164,25 @@
         <v>1996</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>7</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2994,13 +5190,25 @@
         <v>1997</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>7</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3008,13 +5216,25 @@
         <v>1998</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3022,13 +5242,25 @@
         <v>1999</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>13</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3036,13 +5268,25 @@
         <v>2000</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>25</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3050,13 +5294,25 @@
         <v>2001</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="G189">
+        <v>32</v>
+      </c>
+      <c r="H189">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3064,13 +5320,25 @@
         <v>2002</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>23</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3078,13 +5346,25 @@
         <v>2003</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>26</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3092,13 +5372,25 @@
         <v>2004</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>59</v>
+      </c>
+      <c r="H192">
+        <v>1.694915254237288</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3106,13 +5398,25 @@
         <v>2005</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <v>62</v>
+      </c>
+      <c r="H193">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3120,13 +5424,25 @@
         <v>2006</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="G194">
+        <v>64</v>
+      </c>
+      <c r="H194">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3134,13 +5450,25 @@
         <v>2007</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>62</v>
+      </c>
+      <c r="H195">
+        <v>1.612903225806452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3148,13 +5476,25 @@
         <v>2008</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>81</v>
+      </c>
+      <c r="H196">
+        <v>1.234567901234568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3162,13 +5502,25 @@
         <v>2009</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="G197">
+        <v>108</v>
+      </c>
+      <c r="H197">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3176,13 +5528,25 @@
         <v>2010</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D198">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>144</v>
+      </c>
+      <c r="H198">
+        <v>1.388888888888889</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3190,13 +5554,25 @@
         <v>2011</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D199">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>172</v>
+      </c>
+      <c r="H199">
+        <v>1.744186046511628</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3204,13 +5580,25 @@
         <v>2012</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D200">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>184</v>
+      </c>
+      <c r="H200">
+        <v>1.08695652173913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3218,13 +5606,25 @@
         <v>2013</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D201">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201">
+        <v>223</v>
+      </c>
+      <c r="H201">
+        <v>1.79372197309417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3232,13 +5632,25 @@
         <v>2014</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D202">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>218</v>
+      </c>
+      <c r="H202">
+        <v>1.834862385321101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3246,13 +5658,25 @@
         <v>2015</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D203">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+      <c r="G203">
+        <v>228</v>
+      </c>
+      <c r="H203">
+        <v>3.070175438596491</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3260,13 +5684,25 @@
         <v>2016</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D204">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204">
+        <v>6</v>
+      </c>
+      <c r="G204">
+        <v>300</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3274,13 +5710,22 @@
         <v>1988</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3288,13 +5733,25 @@
         <v>1989</v>
       </c>
       <c r="C206" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3302,13 +5759,22 @@
         <v>1990</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3316,13 +5782,25 @@
         <v>1991</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>11</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3330,13 +5808,25 @@
         <v>1992</v>
       </c>
       <c r="C209" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>7</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3344,13 +5834,25 @@
         <v>1993</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>11</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3358,13 +5860,25 @@
         <v>1994</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3372,13 +5886,25 @@
         <v>1995</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>14</v>
+      </c>
+      <c r="H212">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3386,13 +5912,25 @@
         <v>1996</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>7</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3400,13 +5938,25 @@
         <v>1997</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>7</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3414,13 +5964,25 @@
         <v>1998</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>6</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3428,13 +5990,25 @@
         <v>1999</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>13</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3442,13 +6016,25 @@
         <v>2000</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>25</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3456,13 +6042,25 @@
         <v>2001</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>32</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3470,13 +6068,25 @@
         <v>2002</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>23</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3484,13 +6094,25 @@
         <v>2003</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E220" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>26</v>
+      </c>
+      <c r="H220">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3498,13 +6120,25 @@
         <v>2004</v>
       </c>
       <c r="C221" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E221" t="s">
+        <v>19</v>
+      </c>
+      <c r="F221">
+        <v>6</v>
+      </c>
+      <c r="G221">
+        <v>59</v>
+      </c>
+      <c r="H221">
+        <v>10.16949152542373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3512,13 +6146,25 @@
         <v>2005</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222">
+        <v>7</v>
+      </c>
+      <c r="G222">
+        <v>62</v>
+      </c>
+      <c r="H222">
+        <v>11.29032258064516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3526,13 +6172,25 @@
         <v>2006</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="G223">
+        <v>64</v>
+      </c>
+      <c r="H223">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3540,13 +6198,25 @@
         <v>2007</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>62</v>
+      </c>
+      <c r="H224">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3554,13 +6224,25 @@
         <v>2008</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D225">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="s">
+        <v>20</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>81</v>
+      </c>
+      <c r="H225">
+        <v>3.703703703703703</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3568,13 +6250,25 @@
         <v>2009</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D226">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>20</v>
+      </c>
+      <c r="F226">
+        <v>11</v>
+      </c>
+      <c r="G226">
+        <v>108</v>
+      </c>
+      <c r="H226">
+        <v>10.18518518518519</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3582,13 +6276,25 @@
         <v>2010</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>20</v>
+      </c>
+      <c r="F227">
+        <v>16</v>
+      </c>
+      <c r="G227">
+        <v>144</v>
+      </c>
+      <c r="H227">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3596,13 +6302,25 @@
         <v>2011</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D228">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228">
+        <v>19</v>
+      </c>
+      <c r="G228">
+        <v>172</v>
+      </c>
+      <c r="H228">
+        <v>11.04651162790698</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3610,13 +6328,25 @@
         <v>2012</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D229">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>20</v>
+      </c>
+      <c r="F229">
+        <v>18</v>
+      </c>
+      <c r="G229">
+        <v>184</v>
+      </c>
+      <c r="H229">
+        <v>9.782608695652174</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3624,13 +6354,25 @@
         <v>2013</v>
       </c>
       <c r="C230" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D230">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>20</v>
+      </c>
+      <c r="F230">
+        <v>40</v>
+      </c>
+      <c r="G230">
+        <v>223</v>
+      </c>
+      <c r="H230">
+        <v>17.9372197309417</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3638,13 +6380,25 @@
         <v>2014</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D231">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231">
+        <v>218</v>
+      </c>
+      <c r="H231">
+        <v>13.30275229357798</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3652,13 +6406,25 @@
         <v>2015</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D232">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232">
+        <v>228</v>
+      </c>
+      <c r="H232">
+        <v>10.52631578947368</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3666,13 +6432,25 @@
         <v>2016</v>
       </c>
       <c r="C233" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D233">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233">
+        <v>50</v>
+      </c>
+      <c r="G233">
+        <v>300</v>
+      </c>
+      <c r="H233">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3680,13 +6458,22 @@
         <v>1988</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3694,13 +6481,25 @@
         <v>1989</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3708,13 +6507,22 @@
         <v>1990</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3722,13 +6530,25 @@
         <v>1991</v>
       </c>
       <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
         <v>11</v>
       </c>
-      <c r="D237">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3736,13 +6556,25 @@
         <v>1992</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>7</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3750,13 +6582,25 @@
         <v>1993</v>
       </c>
       <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
         <v>11</v>
       </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3764,13 +6608,25 @@
         <v>1994</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>17</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>6</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3778,13 +6634,25 @@
         <v>1995</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>14</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3792,13 +6660,25 @@
         <v>1996</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E242" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>7</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3806,13 +6686,25 @@
         <v>1997</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E243" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>7</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3820,13 +6712,25 @@
         <v>1998</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E244" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>6</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3834,13 +6738,25 @@
         <v>1999</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D245">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>13</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3848,13 +6764,25 @@
         <v>2000</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D246">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E246" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>25</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3862,13 +6790,25 @@
         <v>2001</v>
       </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D247">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>32</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3876,13 +6816,25 @@
         <v>2002</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D248">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E248" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>23</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3890,13 +6842,25 @@
         <v>2003</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="G249">
+        <v>26</v>
+      </c>
+      <c r="H249">
+        <v>11.53846153846154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3904,13 +6868,25 @@
         <v>2004</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D250">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E250" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>59</v>
+      </c>
+      <c r="H250">
+        <v>3.389830508474576</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3918,13 +6894,25 @@
         <v>2005</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D251">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E251" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251">
+        <v>5</v>
+      </c>
+      <c r="G251">
+        <v>62</v>
+      </c>
+      <c r="H251">
+        <v>8.064516129032258</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3932,13 +6920,25 @@
         <v>2006</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D252">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E252" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252">
+        <v>7</v>
+      </c>
+      <c r="G252">
+        <v>64</v>
+      </c>
+      <c r="H252">
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3946,13 +6946,25 @@
         <v>2007</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D253">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+      <c r="G253">
+        <v>62</v>
+      </c>
+      <c r="H253">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3960,13 +6972,25 @@
         <v>2008</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D254">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>81</v>
+      </c>
+      <c r="H254">
+        <v>1.234567901234568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -3974,13 +6998,25 @@
         <v>2009</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D255">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255">
+        <v>108</v>
+      </c>
+      <c r="H255">
+        <v>7.407407407407407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -3988,13 +7024,25 @@
         <v>2010</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D256">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E256" t="s">
+        <v>20</v>
+      </c>
+      <c r="F256">
+        <v>16</v>
+      </c>
+      <c r="G256">
+        <v>144</v>
+      </c>
+      <c r="H256">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4002,13 +7050,25 @@
         <v>2011</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D257">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>20</v>
+      </c>
+      <c r="F257">
+        <v>29</v>
+      </c>
+      <c r="G257">
+        <v>172</v>
+      </c>
+      <c r="H257">
+        <v>16.86046511627907</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4016,13 +7076,25 @@
         <v>2012</v>
       </c>
       <c r="C258" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D258">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E258" t="s">
+        <v>20</v>
+      </c>
+      <c r="F258">
+        <v>23</v>
+      </c>
+      <c r="G258">
+        <v>184</v>
+      </c>
+      <c r="H258">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4030,13 +7102,25 @@
         <v>2013</v>
       </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D259">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E259" t="s">
+        <v>20</v>
+      </c>
+      <c r="F259">
+        <v>27</v>
+      </c>
+      <c r="G259">
+        <v>223</v>
+      </c>
+      <c r="H259">
+        <v>12.10762331838565</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4044,13 +7128,25 @@
         <v>2014</v>
       </c>
       <c r="C260" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D260">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260">
+        <v>39</v>
+      </c>
+      <c r="G260">
+        <v>218</v>
+      </c>
+      <c r="H260">
+        <v>17.88990825688073</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4058,13 +7154,25 @@
         <v>2015</v>
       </c>
       <c r="C261" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261">
+        <v>36</v>
+      </c>
+      <c r="G261">
+        <v>228</v>
+      </c>
+      <c r="H261">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4072,10 +7180,22 @@
         <v>2016</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D262">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262">
+        <v>40</v>
+      </c>
+      <c r="G262">
+        <v>300</v>
+      </c>
+      <c r="H262">
+        <v>13.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="22">
   <si>
     <t>PY</t>
   </si>
@@ -37,7 +37,19 @@
     <t>share</t>
   </si>
   <si>
+    <t>Ocean fertilisation</t>
+  </si>
+  <si>
     <t>Soil Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>NETs - General</t>
+  </si>
+  <si>
+    <t>BECCS</t>
   </si>
   <si>
     <t>Ocean Alkalinisation</t>
@@ -50,18 +62,6 @@
   </si>
   <si>
     <t>Direct Air Capture</t>
-  </si>
-  <si>
-    <t>Ocean fertilisation</t>
-  </si>
-  <si>
-    <t>Enhanced Weathering</t>
-  </si>
-  <si>
-    <t>NETs - General</t>
-  </si>
-  <si>
-    <t>BECCS</t>
   </si>
   <si>
     <t>AR1</t>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -509,9 +509,6 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -520,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -543,22 +540,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -569,24 +566,21 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -595,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -607,13 +601,13 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>9.090909090909092</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -633,13 +627,13 @@
         <v>17</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -647,25 +641,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -673,25 +667,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -699,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -714,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>14.28571428571428</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -725,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -737,13 +731,13 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -751,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -763,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -777,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -789,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
       <c r="H14">
-        <v>24</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -803,25 +797,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>9.375</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -829,25 +823,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>39.1304347826087</v>
+        <v>26.92307692307692</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -855,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -867,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>38.46153846153847</v>
+        <v>45.45454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -881,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -893,13 +887,13 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>33.89830508474576</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -907,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -919,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>27.41935483870968</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -933,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -945,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H20">
-        <v>29.6875</v>
+        <v>15.25423728813559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -959,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -971,13 +965,13 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H21">
-        <v>27.41935483870968</v>
+        <v>34.84848484848485</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -985,25 +979,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>25.92592592592592</v>
+        <v>20.8955223880597</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1011,25 +1005,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1037,7 +1031,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1049,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="H24">
-        <v>31.94444444444444</v>
+        <v>33.70786516853933</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1063,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1075,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="H25">
-        <v>22.09302325581395</v>
+        <v>21.10091743119266</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1089,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1101,13 +1095,13 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="H26">
-        <v>28.80434782608696</v>
+        <v>10.13513513513514</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1115,7 +1109,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1127,13 +1121,13 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="H27">
-        <v>27.3542600896861</v>
+        <v>5.113636363636364</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1141,25 +1135,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="H28">
-        <v>26.14678899082569</v>
+        <v>7.179487179487179</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1167,25 +1161,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29">
-        <v>66</v>
-      </c>
       <c r="G29">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H29">
-        <v>28.94736842105263</v>
+        <v>2.531645569620253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1193,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1205,13 +1199,13 @@
         <v>21</v>
       </c>
       <c r="F30">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>7.079646017699115</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1219,22 +1213,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1988</v>
+        <v>2015</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="H31">
+        <v>2.966101694915254</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1242,25 +1239,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.469135802469136</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1268,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1291,24 +1288,21 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34">
         <v>0</v>
       </c>
     </row>
@@ -1317,24 +1311,21 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
         <v>0</v>
       </c>
     </row>
@@ -1343,22 +1334,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1369,24 +1360,21 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37">
         <v>0</v>
       </c>
     </row>
@@ -1395,25 +1383,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1421,16 +1409,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1447,25 +1435,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1473,25 +1461,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1499,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1511,13 +1499,13 @@
         <v>18</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1525,7 +1513,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1540,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1551,25 +1539,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1577,25 +1565,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1603,25 +1591,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1629,25 +1617,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1655,7 +1643,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1667,13 +1655,13 @@
         <v>19</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1681,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -1693,13 +1681,13 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1707,7 +1695,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1719,13 +1707,13 @@
         <v>19</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H50">
-        <v>3.225806451612903</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1733,25 +1721,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
         <v>20</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H51">
-        <v>1.234567901234568</v>
+        <v>33.89830508474576</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1759,25 +1747,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1785,25 +1773,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G53">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>28.35820895522388</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1811,25 +1799,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1837,7 +1825,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1849,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G55">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="H55">
-        <v>0.5434782608695652</v>
+        <v>22.47191011235955</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1863,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1875,13 +1863,13 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G56">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="H56">
-        <v>2.690582959641256</v>
+        <v>24.77064220183486</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1889,25 +1877,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="H57">
-        <v>0.9174311926605505</v>
+        <v>31.08108108108108</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1915,25 +1903,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="H58">
-        <v>0.4385964912280702</v>
+        <v>21.59090909090909</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1941,25 +1929,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G59">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="H59">
-        <v>1.333333333333333</v>
+        <v>29.74358974358974</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1967,22 +1955,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1988</v>
+        <v>2013</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="H60">
+        <v>26.16033755274262</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1990,25 +1981,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>25.2212389380531</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2016,22 +2007,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="H62">
+        <v>28.38983050847458</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2039,25 +2033,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="H63">
-        <v>36.36363636363637</v>
+        <v>23.76543209876543</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2065,25 +2059,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>7</v>
-      </c>
-      <c r="H64">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2091,25 +2082,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>11</v>
-      </c>
-      <c r="H65">
-        <v>81.81818181818183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2117,25 +2105,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2143,25 +2128,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>71.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2169,25 +2154,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>7</v>
-      </c>
-      <c r="H68">
-        <v>85.71428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2195,25 +2177,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H69">
-        <v>85.71428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2221,25 +2203,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H70">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2247,25 +2229,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H71">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2273,25 +2255,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2299,25 +2281,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H73">
-        <v>37.5</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2325,25 +2307,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H74">
-        <v>39.1304347826087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2351,25 +2333,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H75">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2377,25 +2359,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>30.50847457627119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2403,25 +2385,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H77">
-        <v>14.51612903225807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2429,25 +2411,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2455,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -2467,13 +2449,13 @@
         <v>19</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>40.32258064516129</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2481,25 +2463,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="H80">
-        <v>27.16049382716049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2507,25 +2489,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H81">
-        <v>23.14814814814815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2533,25 +2515,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="H82">
-        <v>23.61111111111111</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2559,25 +2541,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F83">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="H83">
-        <v>26.74418604651163</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2585,25 +2567,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="H84">
-        <v>21.19565217391304</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2611,25 +2593,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H85">
-        <v>17.04035874439462</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2637,25 +2619,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F86">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="H86">
-        <v>12.84403669724771</v>
+        <v>2.247191011235955</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2663,25 +2645,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="H87">
-        <v>17.10526315789474</v>
+        <v>2.752293577981652</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2689,25 +2671,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="H88">
-        <v>18</v>
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2715,22 +2697,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1988</v>
+        <v>2011</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="H89">
+        <v>1.704545454545454</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2738,25 +2723,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1.025641025641026</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2764,22 +2749,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1990</v>
+        <v>2013</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="H91">
+        <v>2.109704641350211</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2787,25 +2775,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1.769911504424779</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2813,25 +2801,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2839,25 +2827,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G94">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2865,24 +2853,21 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>6</v>
-      </c>
-      <c r="H95">
         <v>0</v>
       </c>
     </row>
@@ -2891,24 +2876,21 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>14</v>
-      </c>
-      <c r="H96">
         <v>0</v>
       </c>
     </row>
@@ -2917,24 +2899,21 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>7</v>
-      </c>
-      <c r="H97">
         <v>0</v>
       </c>
     </row>
@@ -2943,22 +2922,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -2969,24 +2948,21 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>6</v>
-      </c>
-      <c r="H99">
         <v>0</v>
       </c>
     </row>
@@ -2995,16 +2971,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3021,22 +2997,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3047,25 +3023,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H102">
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3073,22 +3049,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3099,25 +3075,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3125,22 +3101,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3151,22 +3127,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3177,25 +3153,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3203,22 +3179,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3229,22 +3205,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3255,25 +3231,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3281,25 +3257,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="H111">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3307,25 +3283,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G112">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="H112">
-        <v>3.488372093023256</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3333,25 +3309,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G113">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="H113">
-        <v>5.434782608695652</v>
+        <v>10.16949152542373</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3359,25 +3335,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F114">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="H114">
-        <v>5.829596412556054</v>
+        <v>10.60606060606061</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3385,25 +3361,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F115">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="H115">
-        <v>5.963302752293578</v>
+        <v>4.477611940298507</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3411,25 +3387,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F116">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="H116">
-        <v>7.894736842105263</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3437,25 +3413,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="H117">
-        <v>8.333333333333332</v>
+        <v>5.617977528089887</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3463,22 +3439,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1988</v>
+        <v>2009</v>
       </c>
       <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118">
         <v>11</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
       <c r="G118">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="H118">
+        <v>10.09174311926606</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,25 +3465,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119">
         <v>16</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
       <c r="G119">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,22 +3491,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="H120">
+        <v>11.36363636363636</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3535,25 +3517,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G121">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>9.743589743589745</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3561,25 +3543,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>18.14345991561181</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3587,25 +3569,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1993</v>
+        <v>2014</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G123">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>12.83185840707965</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3613,25 +3595,25 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G124">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>10.59322033898305</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3639,25 +3621,25 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1995</v>
+        <v>2016</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3665,24 +3647,21 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>7</v>
-      </c>
-      <c r="H126">
         <v>0</v>
       </c>
     </row>
@@ -3691,24 +3670,21 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>7</v>
-      </c>
-      <c r="H127">
         <v>0</v>
       </c>
     </row>
@@ -3717,24 +3693,21 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>6</v>
-      </c>
-      <c r="H128">
         <v>0</v>
       </c>
     </row>
@@ -3743,22 +3716,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3769,24 +3742,21 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>25</v>
-      </c>
-      <c r="H130">
         <v>0</v>
       </c>
     </row>
@@ -3795,22 +3765,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3821,25 +3791,25 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3847,22 +3817,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3873,25 +3843,25 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H134">
-        <v>5.084745762711865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3899,25 +3869,25 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H135">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3925,25 +3895,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="H136">
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3951,25 +3921,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H137">
-        <v>4.838709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3977,25 +3947,25 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <v>6.172839506172839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4003,25 +3973,25 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="H139">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4029,25 +3999,25 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F140">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H140">
-        <v>4.166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4055,25 +4025,25 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F141">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>12.79069767441861</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4081,25 +4051,25 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
         <v>24</v>
       </c>
-      <c r="G142">
-        <v>184</v>
-      </c>
       <c r="H142">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4107,25 +4077,25 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143">
         <v>28</v>
       </c>
-      <c r="G143">
-        <v>223</v>
-      </c>
       <c r="H143">
-        <v>12.55605381165919</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4133,25 +4103,25 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F144">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="H144">
-        <v>14.22018348623853</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4159,25 +4129,25 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F145">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="H145">
-        <v>13.1578947368421</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4185,25 +4155,25 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F146">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G146">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="H146">
-        <v>12.66666666666667</v>
+        <v>13.43283582089552</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4211,22 +4181,25 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="H147">
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4234,25 +4207,25 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1.123595505617978</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4260,22 +4233,25 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="H149">
+        <v>7.339449541284404</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4283,25 +4259,25 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G150">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="H150">
-        <v>63.63636363636363</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4309,25 +4285,25 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G151">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>17.04545454545454</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4335,25 +4311,25 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G152">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="H152">
-        <v>9.090909090909092</v>
+        <v>12.82051282051282</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4361,25 +4337,25 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G153">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="H153">
-        <v>16.66666666666666</v>
+        <v>12.23628691983122</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4387,25 +4363,25 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G154">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="H154">
-        <v>7.142857142857142</v>
+        <v>18.14159292035398</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4413,25 +4389,25 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G155">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>15.25423728813559</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4439,25 +4415,25 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G156">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>14.19753086419753</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4465,25 +4441,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>6</v>
-      </c>
-      <c r="H157">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4491,25 +4464,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>13</v>
-      </c>
-      <c r="H158">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4517,25 +4487,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F159">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>25</v>
-      </c>
-      <c r="H159">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4543,25 +4510,25 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F160">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>46.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4569,25 +4536,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>23</v>
-      </c>
-      <c r="H161">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4595,25 +4559,25 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="C162" t="s">
         <v>12</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H162">
-        <v>11.53846153846154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4621,25 +4585,25 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F163">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H163">
-        <v>15.25423728813559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4647,25 +4611,25 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F164">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H164">
-        <v>32.25806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4673,25 +4637,25 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F165">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H165">
-        <v>21.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4699,25 +4663,25 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H166">
-        <v>14.51612903225807</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4725,25 +4689,25 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F167">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H167">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4751,25 +4715,25 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F168">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="H168">
-        <v>20.37037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4777,25 +4741,25 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F169">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="H169">
-        <v>10.41666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4803,25 +4767,25 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F170">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="H170">
-        <v>5.232558139534884</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4829,25 +4793,25 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F171">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="H171">
-        <v>7.608695652173914</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4855,25 +4819,25 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F172">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>2.690582959641256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4881,25 +4845,25 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F173">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="H173">
-        <v>6.880733944954128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4907,25 +4871,25 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="H174">
-        <v>3.070175438596491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4933,25 +4897,25 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F175">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>300</v>
+        <v>59</v>
       </c>
       <c r="H175">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4959,21 +4923,24 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
+        <v>66</v>
+      </c>
+      <c r="H176">
         <v>0</v>
       </c>
     </row>
@@ -4982,22 +4949,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -5008,22 +4975,25 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1990</v>
+        <v>2007</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="H178">
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5031,25 +5001,25 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G179">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>3.370786516853932</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5057,22 +5027,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -5083,22 +5053,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -5109,22 +5079,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -5135,25 +5105,25 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
       <c r="G183">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="H183">
-        <v>7.142857142857142</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5161,25 +5131,25 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G184">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2.531645569620253</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5187,25 +5157,25 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G185">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>0.8849557522123894</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5213,25 +5183,25 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5239,25 +5209,25 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1.234567901234568</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5265,24 +5235,21 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>25</v>
-      </c>
-      <c r="H188">
         <v>0</v>
       </c>
     </row>
@@ -5291,25 +5258,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2001</v>
+        <v>1987</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>32</v>
-      </c>
-      <c r="H189">
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5317,24 +5281,21 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>23</v>
-      </c>
-      <c r="H190">
         <v>0</v>
       </c>
     </row>
@@ -5343,25 +5304,25 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5369,25 +5330,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>2004</v>
+        <v>1990</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>59</v>
-      </c>
-      <c r="H192">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5395,25 +5353,25 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193">
         <v>4</v>
       </c>
-      <c r="E193" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193">
-        <v>2</v>
-      </c>
       <c r="G193">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H193">
-        <v>3.225806451612903</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5421,25 +5379,25 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G194">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="H194">
-        <v>1.5625</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5447,25 +5405,25 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G195">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H195">
-        <v>1.612903225806452</v>
+        <v>81.81818181818183</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5473,25 +5431,25 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G196">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="H196">
-        <v>1.234567901234568</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5499,25 +5457,25 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G197">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H197">
-        <v>2.777777777777778</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5525,25 +5483,25 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G198">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="H198">
-        <v>1.388888888888889</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5551,25 +5509,25 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F199">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G199">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="H199">
-        <v>1.744186046511628</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5577,25 +5535,25 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F200">
         <v>2</v>
       </c>
       <c r="G200">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="H200">
-        <v>1.08695652173913</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5603,25 +5561,25 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201">
         <v>5</v>
       </c>
-      <c r="E201" t="s">
-        <v>20</v>
-      </c>
-      <c r="F201">
-        <v>4</v>
-      </c>
       <c r="G201">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="H201">
-        <v>1.79372197309417</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5629,25 +5587,25 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F202">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G202">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="H202">
-        <v>1.834862385321101</v>
+        <v>46.15384615384615</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5655,25 +5613,25 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G203">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="H203">
-        <v>3.070175438596491</v>
+        <v>36.36363636363637</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5681,25 +5639,25 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G204">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5707,22 +5665,25 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H205">
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5730,25 +5691,25 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>30.50847457627119</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5756,22 +5717,25 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="H207">
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5779,25 +5743,25 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G208">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>23.88059701492537</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5805,25 +5769,25 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G209">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5831,25 +5795,25 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G210">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>24.7191011235955</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5857,25 +5821,25 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G211">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>22.93577981651376</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5883,25 +5847,25 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G212">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="H212">
-        <v>7.142857142857142</v>
+        <v>23.64864864864865</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5909,25 +5873,25 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G213">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>26.70454545454545</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5935,25 +5899,25 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G214">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>20.51282051282051</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5961,25 +5925,25 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G215">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>16.45569620253164</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5987,25 +5951,25 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G216">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>12.83185840707965</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6013,25 +5977,25 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G217">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>16.52542372881356</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6039,25 +6003,25 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G218">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>17.59259259259259</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6065,24 +6029,21 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>23</v>
-      </c>
-      <c r="H219">
         <v>0</v>
       </c>
     </row>
@@ -6091,25 +6052,22 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>26</v>
-      </c>
-      <c r="H220">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6117,25 +6075,22 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F221">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>59</v>
-      </c>
-      <c r="H221">
-        <v>10.16949152542373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6143,25 +6098,25 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F222">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>11.29032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6169,25 +6124,22 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>64</v>
-      </c>
-      <c r="H223">
-        <v>4.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6195,25 +6147,25 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H224">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6221,25 +6173,25 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="H225">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6247,25 +6199,25 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
         <v>11</v>
       </c>
-      <c r="G226">
-        <v>108</v>
-      </c>
       <c r="H226">
-        <v>10.18518518518519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6273,25 +6225,25 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F227">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="H227">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6299,25 +6251,25 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F228">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H228">
-        <v>11.04651162790698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6325,25 +6277,25 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F229">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="H229">
-        <v>9.782608695652174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6351,25 +6303,25 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F230">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="H230">
-        <v>17.9372197309417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6377,25 +6329,25 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
         <v>6</v>
       </c>
-      <c r="E231" t="s">
-        <v>21</v>
-      </c>
-      <c r="F231">
-        <v>29</v>
-      </c>
-      <c r="G231">
-        <v>218</v>
-      </c>
       <c r="H231">
-        <v>13.30275229357798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6403,25 +6355,25 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F232">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="H232">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6429,25 +6381,25 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F233">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="H233">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6455,22 +6407,25 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="H234">
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6478,22 +6433,22 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -6504,21 +6459,24 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
+        <v>28</v>
+      </c>
+      <c r="H236">
         <v>0</v>
       </c>
     </row>
@@ -6527,22 +6485,22 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -6553,22 +6511,22 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -6579,25 +6537,25 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6605,22 +6563,22 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -6631,25 +6589,25 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1.123595505617978</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6657,25 +6615,25 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>20</v>
+      </c>
+      <c r="F242">
         <v>3</v>
       </c>
-      <c r="E242" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
       <c r="G242">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2.752293577981652</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6683,25 +6641,25 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G243">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>8.108108108108109</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6709,25 +6667,25 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G244">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>3.409090909090909</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6735,25 +6693,25 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1999</v>
+        <v>2012</v>
       </c>
       <c r="C245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G245">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>6.153846153846154</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6761,25 +6719,25 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G246">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>6.751054852320674</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6787,25 +6745,25 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E247" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G247">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>5.752212389380531</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6813,25 +6771,25 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G248">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>8.898305084745763</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6839,25 +6797,25 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G249">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="H249">
-        <v>11.53846153846154</v>
+        <v>8.950617283950617</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6865,25 +6823,22 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G250">
-        <v>59</v>
-      </c>
-      <c r="H250">
-        <v>3.389830508474576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6891,25 +6846,22 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>2005</v>
+        <v>1987</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F251">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>62</v>
-      </c>
-      <c r="H251">
-        <v>8.064516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6917,25 +6869,22 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F252">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>64</v>
-      </c>
-      <c r="H252">
-        <v>10.9375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6943,25 +6892,25 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F253">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>4.838709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6969,25 +6918,22 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254">
-        <v>81</v>
-      </c>
-      <c r="H254">
-        <v>1.234567901234568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -6995,25 +6941,25 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F255">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G255">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="H255">
-        <v>7.407407407407407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7021,25 +6967,25 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>2010</v>
+        <v>1992</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F256">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G256">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="H256">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7047,25 +6993,25 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F257">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G257">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="H257">
-        <v>16.86046511627907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7073,25 +7019,25 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F258">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G258">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="H258">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7099,25 +7045,25 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="C259" t="s">
         <v>15</v>
       </c>
       <c r="D259">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F259">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G259">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="H259">
-        <v>12.10762331838565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7125,25 +7071,25 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F260">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G260">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="H260">
-        <v>17.88990825688073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7151,25 +7097,25 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F261">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G261">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="H261">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7177,25 +7123,493 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="C262" t="s">
         <v>15</v>
       </c>
       <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="E262" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
         <v>6</v>
       </c>
-      <c r="E262" t="s">
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>1999</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>13</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>2000</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>26</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>2001</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>33</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>2002</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>24</v>
+      </c>
+      <c r="H266">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>2003</v>
+      </c>
+      <c r="C267" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>28</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>2004</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+      <c r="E268" t="s">
+        <v>19</v>
+      </c>
+      <c r="F268">
+        <v>3</v>
+      </c>
+      <c r="G268">
+        <v>59</v>
+      </c>
+      <c r="H268">
+        <v>5.084745762711865</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>2005</v>
+      </c>
+      <c r="C269" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>66</v>
+      </c>
+      <c r="H269">
+        <v>3.03030303030303</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>2006</v>
+      </c>
+      <c r="C270" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270">
+        <v>67</v>
+      </c>
+      <c r="H270">
+        <v>5.970149253731343</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>2007</v>
+      </c>
+      <c r="C271" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271">
+        <v>3</v>
+      </c>
+      <c r="G271">
+        <v>62</v>
+      </c>
+      <c r="H271">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>2008</v>
+      </c>
+      <c r="C272" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272" t="s">
+        <v>20</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272">
+        <v>89</v>
+      </c>
+      <c r="H272">
+        <v>5.617977528089887</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>2009</v>
+      </c>
+      <c r="C273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273" t="s">
+        <v>20</v>
+      </c>
+      <c r="F273">
+        <v>9</v>
+      </c>
+      <c r="G273">
+        <v>109</v>
+      </c>
+      <c r="H273">
+        <v>8.256880733944955</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>2010</v>
+      </c>
+      <c r="C274" t="s">
+        <v>15</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>20</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274">
+        <v>148</v>
+      </c>
+      <c r="H274">
+        <v>4.054054054054054</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>2011</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+      <c r="E275" t="s">
+        <v>20</v>
+      </c>
+      <c r="F275">
+        <v>23</v>
+      </c>
+      <c r="G275">
+        <v>176</v>
+      </c>
+      <c r="H275">
+        <v>13.06818181818182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>2012</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>20</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
+      </c>
+      <c r="G276">
+        <v>195</v>
+      </c>
+      <c r="H276">
+        <v>12.30769230769231</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>2013</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277" t="s">
+        <v>20</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277">
+        <v>237</v>
+      </c>
+      <c r="H277">
+        <v>13.08016877637131</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>2014</v>
+      </c>
+      <c r="C278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
         <v>21</v>
       </c>
-      <c r="F262">
-        <v>40</v>
-      </c>
-      <c r="G262">
-        <v>300</v>
-      </c>
-      <c r="H262">
-        <v>13.33333333333333</v>
+      <c r="F278">
+        <v>35</v>
+      </c>
+      <c r="G278">
+        <v>226</v>
+      </c>
+      <c r="H278">
+        <v>15.48672566371681</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>2015</v>
+      </c>
+      <c r="C279" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279">
+        <v>32</v>
+      </c>
+      <c r="G279">
+        <v>236</v>
+      </c>
+      <c r="H279">
+        <v>13.5593220338983</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>2016</v>
+      </c>
+      <c r="C280" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280">
+        <v>6</v>
+      </c>
+      <c r="E280" t="s">
+        <v>21</v>
+      </c>
+      <c r="F280">
+        <v>43</v>
+      </c>
+      <c r="G280">
+        <v>324</v>
+      </c>
+      <c r="H280">
+        <v>13.27160493827161</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -61,7 +61,7 @@
     <t>Biochar</t>
   </si>
   <si>
-    <t>Direct Air Capture</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>AR1</t>

--- a/tables/tech_year_totals.xlsx
+++ b/tables/tech_year_totals.xlsx
@@ -37,18 +37,6 @@
     <t>share</t>
   </si>
   <si>
-    <t>Ocean fertilisation</t>
-  </si>
-  <si>
-    <t>Soil Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>Enhanced Weathering</t>
-  </si>
-  <si>
-    <t>NETs - General</t>
-  </si>
-  <si>
     <t>BECCS</t>
   </si>
   <si>
@@ -62,6 +50,18 @@
   </si>
   <si>
     <t>DACCS</t>
+  </si>
+  <si>
+    <t>Ocean fertilisation</t>
+  </si>
+  <si>
+    <t>Soil Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>NETs - General</t>
   </si>
   <si>
     <t>AR1</t>
@@ -601,13 +601,13 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>13</v>
       </c>
       <c r="H7">
-        <v>69.23076923076923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -653,13 +653,13 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>11</v>
       </c>
       <c r="H9">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -679,13 +679,13 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -705,13 +705,13 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
       <c r="H11">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -783,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -809,13 +809,13 @@
         <v>18</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -835,13 +835,13 @@
         <v>18</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>26</v>
       </c>
       <c r="H16">
-        <v>26.92307692307692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -861,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>33</v>
       </c>
       <c r="H17">
-        <v>45.45454545454545</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -887,13 +887,13 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>24</v>
       </c>
       <c r="H18">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -913,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>28</v>
       </c>
       <c r="H19">
-        <v>10.71428571428571</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -939,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>59</v>
       </c>
       <c r="H20">
-        <v>15.25423728813559</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -965,13 +965,13 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>66</v>
       </c>
       <c r="H21">
-        <v>34.84848484848485</v>
+        <v>7.575757575757576</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -991,13 +991,13 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>67</v>
       </c>
       <c r="H22">
-        <v>20.8955223880597</v>
+        <v>13.43283582089552</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1017,13 +1017,13 @@
         <v>19</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>62</v>
       </c>
       <c r="H23">
-        <v>16.12903225806452</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1043,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>89</v>
       </c>
       <c r="H24">
-        <v>33.70786516853933</v>
+        <v>1.123595505617978</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1069,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25">
-        <v>21.10091743119266</v>
+        <v>7.407407407407407</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1095,13 +1095,13 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>148</v>
       </c>
       <c r="H26">
-        <v>10.13513513513514</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1121,13 +1121,13 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H27">
-        <v>5.113636363636364</v>
+        <v>16.94915254237288</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1147,13 +1147,13 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28">
-        <v>7.179487179487179</v>
+        <v>12.88659793814433</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1173,13 +1173,13 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>237</v>
       </c>
       <c r="H29">
-        <v>2.531645569620253</v>
+        <v>12.23628691983122</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1199,13 +1199,13 @@
         <v>21</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>226</v>
       </c>
       <c r="H30">
-        <v>7.079646017699115</v>
+        <v>18.14159292035398</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1225,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>236</v>
       </c>
       <c r="H31">
-        <v>2.966101694915254</v>
+        <v>15.25423728813559</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1251,13 +1251,13 @@
         <v>21</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H32">
-        <v>2.469135802469136</v>
+        <v>14.24148606811146</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1447,13 +1447,13 @@
         <v>17</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>11</v>
       </c>
       <c r="H40">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1473,13 +1473,13 @@
         <v>17</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1499,13 +1499,13 @@
         <v>18</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>14</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1525,13 +1525,13 @@
         <v>18</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>7</v>
       </c>
       <c r="H43">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1551,13 +1551,13 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>7</v>
       </c>
       <c r="H44">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1577,13 +1577,13 @@
         <v>18</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1603,13 +1603,13 @@
         <v>18</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>13</v>
       </c>
       <c r="H46">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1629,13 +1629,13 @@
         <v>18</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>26</v>
       </c>
       <c r="H47">
-        <v>23.07692307692308</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1655,13 +1655,13 @@
         <v>19</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>33</v>
       </c>
       <c r="H48">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1681,13 +1681,13 @@
         <v>19</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>24</v>
       </c>
       <c r="H49">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1707,13 +1707,13 @@
         <v>19</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>28</v>
       </c>
       <c r="H50">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1733,13 +1733,13 @@
         <v>19</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>59</v>
       </c>
       <c r="H51">
-        <v>33.89830508474576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1759,13 +1759,13 @@
         <v>19</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>66</v>
       </c>
       <c r="H52">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1785,13 +1785,13 @@
         <v>19</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>67</v>
       </c>
       <c r="H53">
-        <v>28.35820895522388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1811,13 +1811,13 @@
         <v>19</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>62</v>
       </c>
       <c r="H54">
-        <v>25.80645161290322</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1837,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>89</v>
       </c>
       <c r="H55">
-        <v>22.47191011235955</v>
+        <v>3.370786516853932</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1863,13 +1863,13 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H56">
-        <v>24.77064220183486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1889,13 +1889,13 @@
         <v>20</v>
       </c>
       <c r="F57">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>148</v>
       </c>
       <c r="H57">
-        <v>31.08108108108108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1915,13 +1915,13 @@
         <v>20</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H58">
-        <v>21.59090909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1941,13 +1941,13 @@
         <v>20</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H59">
-        <v>29.74358974358974</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1967,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G60">
         <v>237</v>
       </c>
       <c r="H60">
-        <v>26.16033755274262</v>
+        <v>2.531645569620253</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1993,13 +1993,13 @@
         <v>21</v>
       </c>
       <c r="F61">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>226</v>
       </c>
       <c r="H61">
-        <v>25.2212389380531</v>
+        <v>0.8849557522123894</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2019,13 +2019,13 @@
         <v>21</v>
       </c>
       <c r="F62">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>236</v>
       </c>
       <c r="H62">
-        <v>28.38983050847458</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2045,13 +2045,13 @@
         <v>21</v>
       </c>
       <c r="F63">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H63">
-        <v>23.76543209876543</v>
+        <v>1.238390092879257</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2140,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2189,13 +2189,13 @@
         <v>17</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>13</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2215,13 +2215,13 @@
         <v>17</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>7</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2241,13 +2241,13 @@
         <v>17</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>11</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>81.81818181818183</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2267,13 +2267,13 @@
         <v>17</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>6</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2293,13 +2293,13 @@
         <v>18</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G73">
         <v>14</v>
       </c>
       <c r="H73">
-        <v>7.142857142857142</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2319,13 +2319,13 @@
         <v>18</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G74">
         <v>7</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2345,13 +2345,13 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G75">
         <v>7</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2371,13 +2371,13 @@
         <v>18</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>6</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2397,13 +2397,13 @@
         <v>18</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>13</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2423,13 +2423,13 @@
         <v>18</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>26</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>46.15384615384615</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2449,13 +2449,13 @@
         <v>19</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <v>33</v>
       </c>
       <c r="H79">
-        <v>3.03030303030303</v>
+        <v>36.36363636363637</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2475,13 +2475,13 @@
         <v>19</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G80">
         <v>24</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2501,13 +2501,13 @@
         <v>19</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G81">
         <v>28</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2527,13 +2527,13 @@
         <v>19</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G82">
         <v>59</v>
       </c>
       <c r="H82">
-        <v>1.694915254237288</v>
+        <v>30.50847457627119</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2553,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>66</v>
       </c>
       <c r="H83">
-        <v>3.03030303030303</v>
+        <v>13.63636363636363</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2579,13 +2579,13 @@
         <v>19</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G84">
         <v>67</v>
       </c>
       <c r="H84">
-        <v>1.492537313432836</v>
+        <v>23.88059701492537</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2605,13 +2605,13 @@
         <v>19</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G85">
         <v>62</v>
       </c>
       <c r="H85">
-        <v>1.612903225806452</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2631,13 +2631,13 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G86">
         <v>89</v>
       </c>
       <c r="H86">
-        <v>2.247191011235955</v>
+        <v>24.7191011235955</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2657,13 +2657,13 @@
         <v>20</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G87">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H87">
-        <v>2.752293577981652</v>
+        <v>23.14814814814815</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2683,13 +2683,13 @@
         <v>20</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>148</v>
       </c>
       <c r="H88">
-        <v>1.351351351351351</v>
+        <v>23.64864864864865</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2709,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="G89">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H89">
-        <v>1.704545454545454</v>
+        <v>26.55367231638418</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2735,13 +2735,13 @@
         <v>20</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H90">
-        <v>1.025641025641026</v>
+        <v>20.61855670103093</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2761,13 +2761,13 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>237</v>
       </c>
       <c r="H91">
-        <v>2.109704641350211</v>
+        <v>16.45569620253164</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2787,13 +2787,13 @@
         <v>21</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G92">
         <v>226</v>
       </c>
       <c r="H92">
-        <v>1.769911504424779</v>
+        <v>12.83185840707965</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2813,13 +2813,13 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>236</v>
       </c>
       <c r="H93">
-        <v>3.389830508474576</v>
+        <v>16.52542372881356</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2839,13 +2839,13 @@
         <v>21</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="G94">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H94">
-        <v>1.851851851851852</v>
+        <v>17.64705882352941</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3087,13 +3087,13 @@
         <v>18</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>14</v>
       </c>
       <c r="H104">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3243,13 +3243,13 @@
         <v>19</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>33</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3295,13 +3295,13 @@
         <v>19</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>28</v>
       </c>
       <c r="H112">
-        <v>10.71428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3321,13 +3321,13 @@
         <v>19</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>59</v>
       </c>
       <c r="H113">
-        <v>10.16949152542373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3347,13 +3347,13 @@
         <v>19</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>66</v>
       </c>
       <c r="H114">
-        <v>10.60606060606061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3373,13 +3373,13 @@
         <v>19</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>67</v>
       </c>
       <c r="H115">
-        <v>4.477611940298507</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3399,13 +3399,13 @@
         <v>19</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>62</v>
       </c>
       <c r="H116">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3425,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>89</v>
       </c>
       <c r="H117">
-        <v>5.617977528089887</v>
+        <v>1.123595505617978</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3451,13 +3451,13 @@
         <v>20</v>
       </c>
       <c r="F118">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H118">
-        <v>10.09174311926606</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3477,13 +3477,13 @@
         <v>20</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G119">
         <v>148</v>
       </c>
       <c r="H119">
-        <v>10.81081081081081</v>
+        <v>8.108108108108109</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3503,13 +3503,13 @@
         <v>20</v>
       </c>
       <c r="F120">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G120">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H120">
-        <v>11.36363636363636</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3529,13 +3529,13 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G121">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H121">
-        <v>9.743589743589745</v>
+        <v>6.185567010309279</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3555,13 +3555,13 @@
         <v>20</v>
       </c>
       <c r="F122">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G122">
         <v>237</v>
       </c>
       <c r="H122">
-        <v>18.14345991561181</v>
+        <v>6.751054852320674</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3581,13 +3581,13 @@
         <v>21</v>
       </c>
       <c r="F123">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G123">
         <v>226</v>
       </c>
       <c r="H123">
-        <v>12.83185840707965</v>
+        <v>5.752212389380531</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3607,13 +3607,13 @@
         <v>21</v>
       </c>
       <c r="F124">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G124">
         <v>236</v>
       </c>
       <c r="H124">
-        <v>10.59322033898305</v>
+        <v>8.898305084745763</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3633,13 +3633,13 @@
         <v>21</v>
       </c>
       <c r="F125">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G125">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H125">
-        <v>16.66666666666666</v>
+        <v>8.978328173374612</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4037,13 +4037,13 @@
         <v>19</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>33</v>
       </c>
       <c r="H141">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4063,13 +4063,13 @@
         <v>19</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <v>24</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4089,13 +4089,13 @@
         <v>19</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>28</v>
       </c>
       <c r="H143">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4115,13 +4115,13 @@
         <v>19</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G144">
         <v>59</v>
       </c>
       <c r="H144">
-        <v>3.389830508474576</v>
+        <v>5.084745762711865</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4141,13 +4141,13 @@
         <v>19</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G145">
         <v>66</v>
       </c>
       <c r="H145">
-        <v>7.575757575757576</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4167,13 +4167,13 @@
         <v>19</v>
       </c>
       <c r="F146">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G146">
         <v>67</v>
       </c>
       <c r="H146">
-        <v>13.43283582089552</v>
+        <v>5.970149253731343</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4219,13 +4219,13 @@
         <v>20</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G148">
         <v>89</v>
       </c>
       <c r="H148">
-        <v>1.123595505617978</v>
+        <v>5.617977528089887</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4245,13 +4245,13 @@
         <v>20</v>
       </c>
       <c r="F149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G149">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H149">
-        <v>7.339449541284404</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4271,13 +4271,13 @@
         <v>20</v>
       </c>
       <c r="F150">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G150">
         <v>148</v>
       </c>
       <c r="H150">
-        <v>10.81081081081081</v>
+        <v>4.054054054054054</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4297,13 +4297,13 @@
         <v>20</v>
       </c>
       <c r="F151">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G151">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H151">
-        <v>17.04545454545454</v>
+        <v>12.99435028248588</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4323,13 +4323,13 @@
         <v>20</v>
       </c>
       <c r="F152">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G152">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H152">
-        <v>12.82051282051282</v>
+        <v>12.37113402061856</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4349,13 +4349,13 @@
         <v>20</v>
       </c>
       <c r="F153">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>237</v>
       </c>
       <c r="H153">
-        <v>12.23628691983122</v>
+        <v>13.08016877637131</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4375,13 +4375,13 @@
         <v>21</v>
       </c>
       <c r="F154">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>226</v>
       </c>
       <c r="H154">
-        <v>18.14159292035398</v>
+        <v>15.48672566371681</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4401,13 +4401,13 @@
         <v>21</v>
       </c>
       <c r="F155">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>236</v>
       </c>
       <c r="H155">
-        <v>15.25423728813559</v>
+        <v>13.5593220338983</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4427,13 +4427,13 @@
         <v>21</v>
       </c>
       <c r="F156">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G156">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H156">
-        <v>14.19753086419753</v>
+        <v>13.31269349845201</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4571,13 +4571,13 @@
         <v>17</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <v>13</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4623,13 +4623,13 @@
         <v>17</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>11</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4649,13 +4649,13 @@
         <v>17</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>6</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4753,13 +4753,13 @@
         <v>18</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <v>6</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4779,13 +4779,13 @@
         <v>18</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G170">
         <v>13</v>
       </c>
       <c r="H170">
-        <v>7.692307692307693</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4805,13 +4805,13 @@
         <v>18</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G171">
         <v>26</v>
       </c>
       <c r="H171">
-        <v>3.846153846153846</v>
+        <v>26.92307692307692</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4831,13 +4831,13 @@
         <v>19</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G172">
         <v>33</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4857,13 +4857,13 @@
         <v>19</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G173">
         <v>24</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4883,13 +4883,13 @@
         <v>19</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G174">
         <v>28</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4909,13 +4909,13 @@
         <v>19</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <v>59</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>15.25423728813559</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4935,13 +4935,13 @@
         <v>19</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G176">
         <v>66</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>34.84848484848485</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4961,13 +4961,13 @@
         <v>19</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G177">
         <v>67</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>20.8955223880597</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4987,13 +4987,13 @@
         <v>19</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G178">
         <v>62</v>
       </c>
       <c r="H178">
-        <v>3.225806451612903</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5013,13 +5013,13 @@
         <v>20</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G179">
         <v>89</v>
       </c>
       <c r="H179">
-        <v>3.370786516853932</v>
+        <v>33.70786516853933</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5039,13 +5039,13 @@
         <v>20</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G180">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>21.2962962962963</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5065,13 +5065,13 @@
         <v>20</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G181">
         <v>148</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>10.13513513513514</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5091,13 +5091,13 @@
         <v>20</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>5.084745762711865</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5117,13 +5117,13 @@
         <v>20</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G183">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H183">
-        <v>0.5128205128205128</v>
+        <v>7.216494845360824</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5169,13 +5169,13 @@
         <v>21</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G185">
         <v>226</v>
       </c>
       <c r="H185">
-        <v>0.8849557522123894</v>
+        <v>7.079646017699115</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5195,13 +5195,13 @@
         <v>21</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G186">
         <v>236</v>
       </c>
       <c r="H186">
-        <v>0.423728813559322</v>
+        <v>2.966101694915254</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5221,13 +5221,13 @@
         <v>21</v>
       </c>
       <c r="F187">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G187">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H187">
-        <v>1.234567901234568</v>
+        <v>2.476780185758514</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5316,13 +5316,13 @@
         <v>16</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5365,13 +5365,13 @@
         <v>17</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>13</v>
       </c>
       <c r="H193">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5391,13 +5391,13 @@
         <v>17</v>
       </c>
       <c r="F194">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>7</v>
       </c>
       <c r="H194">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5417,13 +5417,13 @@
         <v>17</v>
       </c>
       <c r="F195">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>11</v>
       </c>
       <c r="H195">
-        <v>81.81818181818183</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5443,13 +5443,13 @@
         <v>17</v>
       </c>
       <c r="F196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>6</v>
       </c>
       <c r="H196">
-        <v>66.66666666666666</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5469,13 +5469,13 @@
         <v>18</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>14</v>
       </c>
       <c r="H197">
-        <v>71.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5495,13 +5495,13 @@
         <v>18</v>
       </c>
       <c r="F198">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>7</v>
       </c>
       <c r="H198">
-        <v>85.71428571428571</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5521,13 +5521,13 @@
         <v>18</v>
       </c>
       <c r="F199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>7</v>
       </c>
       <c r="H199">
-        <v>85.71428571428571</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5547,13 +5547,13 @@
         <v>18</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G200">
         <v>6</v>
       </c>
       <c r="H200">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5573,13 +5573,13 @@
         <v>18</v>
       </c>
       <c r="F201">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G201">
         <v>13</v>
       </c>
       <c r="H201">
-        <v>38.46153846153847</v>
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5599,13 +5599,13 @@
         <v>18</v>
       </c>
       <c r="F202">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G202">
         <v>26</v>
       </c>
       <c r="H202">
-        <v>46.15384615384615</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5625,13 +5625,13 @@
         <v>19</v>
       </c>
       <c r="F203">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G203">
         <v>33</v>
       </c>
       <c r="H203">
-        <v>36.36363636363637</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5677,13 +5677,13 @@
         <v>19</v>
       </c>
       <c r="F205">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G205">
         <v>28</v>
       </c>
       <c r="H205">
-        <v>28.57142857142857</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5703,13 +5703,13 @@
         <v>19</v>
       </c>
       <c r="F206">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G206">
         <v>59</v>
       </c>
       <c r="H206">
-        <v>30.50847457627119</v>
+        <v>33.89830508474576</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5729,13 +5729,13 @@
         <v>19</v>
       </c>
       <c r="F207">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G207">
         <v>66</v>
       </c>
       <c r="H207">
-        <v>13.63636363636363</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5755,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="F208">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G208">
         <v>67</v>
       </c>
       <c r="H208">
-        <v>23.88059701492537</v>
+        <v>28.35820895522388</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5781,13 +5781,13 @@
         <v>19</v>
       </c>
       <c r="F209">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G209">
         <v>62</v>
       </c>
       <c r="H209">
-        <v>40.32258064516129</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5807,13 +5807,13 @@
         <v>20</v>
       </c>
       <c r="F210">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G210">
         <v>89</v>
       </c>
       <c r="H210">
-        <v>24.7191011235955</v>
+        <v>22.47191011235955</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5833,13 +5833,13 @@
         <v>20</v>
       </c>
       <c r="F211">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G211">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H211">
-        <v>22.93577981651376</v>
+        <v>24.07407407407407</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5859,13 +5859,13 @@
         <v>20</v>
       </c>
       <c r="F212">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G212">
         <v>148</v>
       </c>
       <c r="H212">
-        <v>23.64864864864865</v>
+        <v>31.08108108108108</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5885,13 +5885,13 @@
         <v>20</v>
       </c>
       <c r="F213">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G213">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H213">
-        <v>26.70454545454545</v>
+        <v>22.03389830508474</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5911,13 +5911,13 @@
         <v>20</v>
       </c>
       <c r="F214">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G214">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H214">
-        <v>20.51282051282051</v>
+        <v>29.89690721649485</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5937,13 +5937,13 @@
         <v>20</v>
       </c>
       <c r="F215">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G215">
         <v>237</v>
       </c>
       <c r="H215">
-        <v>16.45569620253164</v>
+        <v>26.16033755274262</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5963,13 +5963,13 @@
         <v>21</v>
       </c>
       <c r="F216">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G216">
         <v>226</v>
       </c>
       <c r="H216">
-        <v>12.83185840707965</v>
+        <v>25.2212389380531</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -5989,13 +5989,13 @@
         <v>21</v>
       </c>
       <c r="F217">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G217">
         <v>236</v>
       </c>
       <c r="H217">
-        <v>16.52542372881356</v>
+        <v>28.38983050847458</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6015,13 +6015,13 @@
         <v>21</v>
       </c>
       <c r="F218">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G218">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H218">
-        <v>17.59259259259259</v>
+        <v>23.8390092879257</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6263,13 +6263,13 @@
         <v>18</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <v>14</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6497,13 +6497,13 @@
         <v>19</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>59</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6523,13 +6523,13 @@
         <v>19</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G238">
         <v>66</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6575,13 +6575,13 @@
         <v>19</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240">
         <v>62</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6601,13 +6601,13 @@
         <v>20</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G241">
         <v>89</v>
       </c>
       <c r="H241">
-        <v>1.123595505617978</v>
+        <v>2.247191011235955</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6630,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="G242">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H242">
-        <v>2.752293577981652</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6653,13 +6653,13 @@
         <v>20</v>
       </c>
       <c r="F243">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G243">
         <v>148</v>
       </c>
       <c r="H243">
-        <v>8.108108108108109</v>
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6679,13 +6679,13 @@
         <v>20</v>
       </c>
       <c r="F244">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G244">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H244">
-        <v>3.409090909090909</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6705,13 +6705,13 @@
         <v>20</v>
       </c>
       <c r="F245">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G245">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H245">
-        <v>6.153846153846154</v>
+        <v>1.030927835051546</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6731,13 +6731,13 @@
         <v>20</v>
       </c>
       <c r="F246">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G246">
         <v>237</v>
       </c>
       <c r="H246">
-        <v>6.751054852320674</v>
+        <v>2.109704641350211</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6757,13 +6757,13 @@
         <v>21</v>
       </c>
       <c r="F247">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G247">
         <v>226</v>
       </c>
       <c r="H247">
-        <v>5.752212389380531</v>
+        <v>1.769911504424779</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6783,13 +6783,13 @@
         <v>21</v>
       </c>
       <c r="F248">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G248">
         <v>236</v>
       </c>
       <c r="H248">
-        <v>8.898305084745763</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6809,13 +6809,13 @@
         <v>21</v>
       </c>
       <c r="F249">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G249">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H249">
-        <v>8.950617283950617</v>
+        <v>1.857585139318885</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7057,13 +7057,13 @@
         <v>18</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>14</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7239,13 +7239,13 @@
         <v>19</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G266">
         <v>24</v>
       </c>
       <c r="H266">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7265,13 +7265,13 @@
         <v>19</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G267">
         <v>28</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7291,13 +7291,13 @@
         <v>19</v>
       </c>
       <c r="F268">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G268">
         <v>59</v>
       </c>
       <c r="H268">
-        <v>5.084745762711865</v>
+        <v>10.16949152542373</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7317,13 +7317,13 @@
         <v>19</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G269">
         <v>66</v>
       </c>
       <c r="H269">
-        <v>3.03030303030303</v>
+        <v>10.60606060606061</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7343,13 +7343,13 @@
         <v>19</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G270">
         <v>67</v>
       </c>
       <c r="H270">
-        <v>5.970149253731343</v>
+        <v>4.477611940298507</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7369,13 +7369,13 @@
         <v>19</v>
       </c>
       <c r="F271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G271">
         <v>62</v>
       </c>
       <c r="H271">
-        <v>4.838709677419355</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7421,13 +7421,13 @@
         <v>20</v>
       </c>
       <c r="F273">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G273">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H273">
-        <v>8.256880733944955</v>
+        <v>10.18518518518519</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7447,13 +7447,13 @@
         <v>20</v>
       </c>
       <c r="F274">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G274">
         <v>148</v>
       </c>
       <c r="H274">
-        <v>4.054054054054054</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7473,13 +7473,13 @@
         <v>20</v>
       </c>
       <c r="F275">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G275">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H275">
-        <v>13.06818181818182</v>
+        <v>11.29943502824859</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7499,13 +7499,13 @@
         <v>20</v>
       </c>
       <c r="F276">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G276">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H276">
-        <v>12.30769230769231</v>
+        <v>9.278350515463918</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7525,13 +7525,13 @@
         <v>20</v>
       </c>
       <c r="F277">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G277">
         <v>237</v>
       </c>
       <c r="H277">
-        <v>13.08016877637131</v>
+        <v>18.14345991561181</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7551,13 +7551,13 @@
         <v>21</v>
       </c>
       <c r="F278">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G278">
         <v>226</v>
       </c>
       <c r="H278">
-        <v>15.48672566371681</v>
+        <v>12.83185840707965</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7577,13 +7577,13 @@
         <v>21</v>
       </c>
       <c r="F279">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G279">
         <v>236</v>
       </c>
       <c r="H279">
-        <v>13.5593220338983</v>
+        <v>10.59322033898305</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7603,13 +7603,13 @@
         <v>21</v>
       </c>
       <c r="F280">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G280">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H280">
-        <v>13.27160493827161</v>
+        <v>16.40866873065016</v>
       </c>
     </row>
   </sheetData>
